--- a/Money Manager Python/income_record.xlsx
+++ b/Money Manager Python/income_record.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45363</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45414</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45414</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,6 +504,34 @@
       </c>
       <c r="C5" t="n">
         <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45419.96802559028</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Money Manager Python/income_record.xlsx
+++ b/Money Manager Python/income_record.xlsx
@@ -1,39 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\My Python\OOP2_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC95B154-C6D2-4246-92CE-BEBCA43CC9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rafid" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rafid" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Pocket Money</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,26 +75,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -137,6 +173,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,7 +189,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="171717"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -424,114 +468,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45363</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45361</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>500</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pocket Money</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45414</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45414</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pocket Money</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45419.96802559028</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-05-07</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>90</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Money Manager Python/income_record.xlsx
+++ b/Money Manager Python/income_record.xlsx
@@ -1,66 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\My Python\OOP2_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC95B154-C6D2-4246-92CE-BEBCA43CC9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Rafid" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rafid" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Pocket Money</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,35 +49,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -173,14 +137,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +145,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="171717"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -468,115 +424,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>45301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>45303</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>45331</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>45361</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>45387</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>45390</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>45419</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
